--- a/Leetcode Questions.xlsx
+++ b/Leetcode Questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiki_\Documents\GitHub\Leetcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FCF0121-B86A-4D48-A748-E5DC9661E47F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C728F9-4157-41F6-BC5B-D4D5FFE428E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16260" xr2:uid="{4374A8F0-66E6-4B9E-825C-B8B54FAADEEA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>No.</t>
   </si>
@@ -62,14 +62,58 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Leetcode/Hackerrank</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>minimumBribes</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to reverse the moves to unwind the unsorted list. </t>
+  </si>
+  <si>
+    <t>letterCombinations</t>
+  </si>
+  <si>
+    <t>MinTime</t>
+  </si>
+  <si>
+    <t>MaxTime</t>
+  </si>
+  <si>
+    <t>15 mins 50 secs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need clear mental picture to solve the loop. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -97,8 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,54 +459,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA75F20-5CDF-4D1C-B740-4AF07C92BCDC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="44" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" customWidth="1"/>
-    <col min="5" max="5" width="181" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="28.1796875" customWidth="1"/>
+    <col min="8" max="8" width="181" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>416</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>